--- a/Data_Dictionary.xlsx
+++ b/Data_Dictionary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fcsnashville-my.sharepoint.com/personal/bshuler_fcsnashville_org/Documents/NSS - SmileOn/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evanr\Documents\NSS\Projects\smile-on-spiderman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{1CB450C1-7606-457C-BD5F-7C845AE569D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{69A8EDAF-F91F-4C67-94BF-2DB548152646}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C816DB-AF29-473D-9C05-1EECF6C2D226}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1456EB46-2F1A-4359-8804-70950F946C77}"/>
+    <workbookView xWindow="-21885" yWindow="2670" windowWidth="21600" windowHeight="11385" xr2:uid="{1456EB46-2F1A-4359-8804-70950F946C77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1004,8 +1004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A8352A6-6A43-4B39-A35C-B4C8BC87CC9C}">
   <dimension ref="A1:B183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="A130" sqref="A130"/>
+    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A157" sqref="A157:A159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1014,7 +1014,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1022,7 +1022,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -1030,7 +1030,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -1038,12 +1038,12 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1061,7 +1061,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -1133,17 +1133,17 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1153,7 +1153,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1374,7 +1374,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="A49" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B49" t="s">
@@ -2062,7 +2062,7 @@
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="2" t="s">
+      <c r="A141" s="1" t="s">
         <v>140</v>
       </c>
     </row>
@@ -2142,17 +2142,17 @@
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+      <c r="A157" s="2" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+      <c r="A158" s="2" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+      <c r="A159" s="2" t="s">
         <v>158</v>
       </c>
     </row>
@@ -2245,7 +2245,7 @@
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
+      <c r="A177" s="1" t="s">
         <v>176</v>
       </c>
     </row>

--- a/Data_Dictionary.xlsx
+++ b/Data_Dictionary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fcsnashville-my.sharepoint.com/personal/bshuler_fcsnashville_org/Documents/NSS - SmileOn/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\balle\Documents\NSS\projects\smile-on-spiderman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{1CB450C1-7606-457C-BD5F-7C845AE569D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{69A8EDAF-F91F-4C67-94BF-2DB548152646}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F3EB96-4F3D-43F9-9E91-3763F278FAB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1456EB46-2F1A-4359-8804-70950F946C77}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{1456EB46-2F1A-4359-8804-70950F946C77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -658,7 +658,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -668,6 +668,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,10 +690,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1004,32 +1011,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A8352A6-6A43-4B39-A35C-B4C8BC87CC9C}">
   <dimension ref="A1:B183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="A130" sqref="A130"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A153" sqref="A153"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="114.7109375" customWidth="1"/>
+    <col min="1" max="1" width="114.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1037,22 +1044,22 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1060,15 +1067,15 @@
         <v>186</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1076,7 +1083,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1084,7 +1091,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1092,7 +1099,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1100,7 +1107,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1108,7 +1115,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1116,7 +1123,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1124,7 +1131,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1132,32 +1139,32 @@
         <v>188</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1165,7 +1172,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1173,7 +1180,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1181,7 +1188,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1189,7 +1196,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1197,7 +1204,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1205,7 +1212,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1213,7 +1220,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1221,7 +1228,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1229,7 +1236,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -1237,7 +1244,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1245,7 +1252,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1253,7 +1260,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1261,7 +1268,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -1269,7 +1276,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -1277,7 +1284,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -1285,7 +1292,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -1293,7 +1300,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -1301,7 +1308,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -1309,7 +1316,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -1317,7 +1324,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -1325,7 +1332,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -1333,7 +1340,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -1341,7 +1348,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -1349,7 +1356,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -1357,7 +1364,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -1365,7 +1372,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -1373,15 +1380,15 @@
         <v>190</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="49" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -1389,7 +1396,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -1397,7 +1404,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -1405,7 +1412,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -1413,7 +1420,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -1421,12 +1428,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -1434,7 +1441,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -1442,7 +1449,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -1450,17 +1457,17 @@
         <v>188</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -1468,7 +1475,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -1476,7 +1483,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -1484,7 +1491,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -1492,7 +1499,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -1500,7 +1507,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -1508,7 +1515,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -1516,7 +1523,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -1524,7 +1531,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -1532,7 +1539,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -1540,7 +1547,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -1548,7 +1555,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -1556,7 +1563,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -1564,7 +1571,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -1572,7 +1579,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -1580,7 +1587,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -1588,7 +1595,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -1596,7 +1603,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -1604,7 +1611,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -1612,7 +1619,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -1620,7 +1627,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -1628,7 +1635,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -1636,7 +1643,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -1644,7 +1651,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -1652,7 +1659,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -1660,7 +1667,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -1668,7 +1675,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -1676,7 +1683,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -1684,7 +1691,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -1692,7 +1699,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -1700,7 +1707,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -1708,7 +1715,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -1716,7 +1723,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -1724,7 +1731,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -1732,7 +1739,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -1740,7 +1747,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -1748,7 +1755,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -1756,7 +1763,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -1764,7 +1771,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -1772,7 +1779,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -1780,7 +1787,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -1788,7 +1795,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -1796,7 +1803,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -1804,7 +1811,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -1812,7 +1819,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -1820,7 +1827,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -1828,7 +1835,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -1836,7 +1843,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -1844,7 +1851,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -1852,7 +1859,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -1860,7 +1867,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -1868,7 +1875,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -1876,7 +1883,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -1884,7 +1891,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -1892,7 +1899,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -1900,7 +1907,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -1908,7 +1915,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -1916,7 +1923,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -1924,7 +1931,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -1932,7 +1939,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -1940,7 +1947,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -1948,7 +1955,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -1956,7 +1963,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -1964,7 +1971,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -1972,7 +1979,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -1980,7 +1987,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -1988,22 +1995,22 @@
         <v>201</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A130" s="1" t="s">
         <v>129</v>
       </c>
@@ -2011,232 +2018,232 @@
         <v>202</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A133" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="2" t="s">
+    <row r="141" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A141" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A150" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A151" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A152" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A153" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A154" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A155" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A156" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+    <row r="157" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A157" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+    <row r="158" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A158" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+    <row r="159" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A159" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A160" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A166" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A169" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A170" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A171" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A172" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A173" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A174" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A175" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A176" s="1" t="s">
         <v>175</v>
       </c>
@@ -2244,37 +2251,37 @@
         <v>191</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
+    <row r="177" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A177" s="3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A178" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A179" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A180" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A181" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A182" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A183" t="s">
         <v>182</v>
       </c>

--- a/Data_Dictionary.xlsx
+++ b/Data_Dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fcsnashville-my.sharepoint.com/personal/bshuler_fcsnashville_org/Documents/NSS - SmileOn/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kkosf\Documents\nss\projects\smile-on-spiderman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{1CB450C1-7606-457C-BD5F-7C845AE569D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{69A8EDAF-F91F-4C67-94BF-2DB548152646}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490B1C02-4342-4164-9813-37CB96F875FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1456EB46-2F1A-4359-8804-70950F946C77}"/>
+    <workbookView xWindow="6672" yWindow="2184" windowWidth="14628" windowHeight="9756" xr2:uid="{1456EB46-2F1A-4359-8804-70950F946C77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -649,10 +648,37 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -684,10 +710,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1004,32 +1035,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A8352A6-6A43-4B39-A35C-B4C8BC87CC9C}">
   <dimension ref="A1:B183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="A130" sqref="A130"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="A173" sqref="A173"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="114.7109375" customWidth="1"/>
+    <col min="1" max="1" width="151.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="85.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1037,38 +1069,38 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1076,7 +1108,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1084,7 +1116,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1092,7 +1124,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1100,7 +1132,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1108,7 +1140,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1116,7 +1148,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1124,7 +1156,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1132,32 +1164,32 @@
         <v>188</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1165,7 +1197,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1173,7 +1205,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1181,7 +1213,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1189,7 +1221,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1197,7 +1229,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1205,7 +1237,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1213,7 +1245,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1221,7 +1253,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1229,7 +1261,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -1237,7 +1269,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1245,7 +1277,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1253,7 +1285,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1261,15 +1293,15 @@
         <v>188</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -1277,7 +1309,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -1285,7 +1317,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -1293,7 +1325,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -1301,7 +1333,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -1309,7 +1341,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -1317,7 +1349,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -1325,7 +1357,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -1333,7 +1365,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -1341,7 +1373,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -1349,7 +1381,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -1357,7 +1389,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -1365,7 +1397,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -1373,15 +1405,15 @@
         <v>190</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -1389,7 +1421,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -1397,7 +1429,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -1405,7 +1437,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -1413,7 +1445,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -1421,12 +1453,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -1434,7 +1466,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -1442,7 +1474,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -1450,25 +1482,25 @@
         <v>188</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -1476,7 +1508,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -1484,7 +1516,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -1492,7 +1524,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -1500,7 +1532,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -1508,7 +1540,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -1516,7 +1548,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -1524,7 +1556,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -1532,7 +1564,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -1540,7 +1572,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -1548,7 +1580,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -1556,7 +1588,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -1564,7 +1596,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -1572,7 +1604,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -1580,7 +1612,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -1588,7 +1620,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -1596,7 +1628,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -1604,7 +1636,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -1612,7 +1644,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -1620,7 +1652,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -1628,7 +1660,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -1636,7 +1668,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -1644,7 +1676,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -1652,7 +1684,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -1660,7 +1692,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -1668,7 +1700,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -1676,7 +1708,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -1684,7 +1716,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -1692,7 +1724,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -1700,7 +1732,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -1708,7 +1740,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -1716,7 +1748,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -1724,7 +1756,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -1732,7 +1764,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -1740,7 +1772,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -1748,7 +1780,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -1756,7 +1788,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -1764,7 +1796,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -1772,7 +1804,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -1780,7 +1812,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -1788,7 +1820,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -1796,7 +1828,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -1804,7 +1836,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -1812,7 +1844,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -1820,7 +1852,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -1828,7 +1860,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -1836,7 +1868,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -1844,7 +1876,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -1852,7 +1884,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -1860,7 +1892,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -1868,7 +1900,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -1876,7 +1908,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -1884,7 +1916,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -1892,7 +1924,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -1900,7 +1932,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -1908,7 +1940,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -1916,7 +1948,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -1924,7 +1956,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -1932,7 +1964,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -1940,7 +1972,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -1948,7 +1980,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -1956,7 +1988,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -1964,7 +1996,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -1972,7 +2004,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -1980,7 +2012,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -1988,298 +2020,299 @@
         <v>201</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="7" t="s">
         <v>129</v>
       </c>
       <c r="B130" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="2" t="s">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="2" t="s">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" s="6" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" s="4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="s">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160" s="7" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" s="1" t="s">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" s="7" t="s">
         <v>175</v>
       </c>
       <c r="B176" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" s="1" t="s">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A179" s="7" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="1" t="s">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A180" s="7" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="1" t="s">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A181" s="7" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A182" s="2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A183" s="2" t="s">
         <v>182</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data_Dictionary.xlsx
+++ b/Data_Dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kkosf\Documents\nss\projects\smile-on-spiderman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490B1C02-4342-4164-9813-37CB96F875FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A420B1D8-46DC-4455-9186-D61A8F907672}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6672" yWindow="2184" windowWidth="14628" windowHeight="9756" xr2:uid="{1456EB46-2F1A-4359-8804-70950F946C77}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1456EB46-2F1A-4359-8804-70950F946C77}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -684,7 +684,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -694,6 +694,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -710,7 +716,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -719,6 +725,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1035,8 +1042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A8352A6-6A43-4B39-A35C-B4C8BC87CC9C}">
   <dimension ref="A1:B183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="A173" sqref="A173"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="A138" sqref="A138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2049,7 +2056,7 @@
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132" s="2" t="s">
+      <c r="A132" s="8" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2074,12 +2081,12 @@
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137" s="2" t="s">
+      <c r="A137" s="8" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A138" s="2" t="s">
+      <c r="A138" s="8" t="s">
         <v>137</v>
       </c>
     </row>
